--- a/Matériel/Self perception Inventory.xlsx
+++ b/Matériel/Self perception Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xavier/Github/ICT-306/Matériel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3621AA-F876-4FEA-970F-1ED0D05D366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A76528C-212A-8748-9873-BA675A148654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>1)  Ce que je pense pouvoir apporter à une équipe :</t>
   </si>
@@ -1330,6 +1330,9 @@
   </si>
   <si>
     <t>Rôle dans une équipe de projet (selon Belbin) - Questionnaire</t>
+  </si>
+  <si>
+    <t>Attention: veillez à travailler dans un fichier personnel et non partagé (Teams, Git, …)</t>
   </si>
 </sst>
 </file>
@@ -2715,9 +2718,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2755,9 +2758,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2790,26 +2793,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2842,26 +2828,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3035,35 +3004,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="94.140625" customWidth="1"/>
+    <col min="1" max="1" width="94.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3078,77 +3052,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="132" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>64</v>
       </c>
@@ -3157,63 +3131,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3222,63 +3196,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3287,63 +3261,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>64</v>
       </c>
@@ -3352,63 +3326,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>64</v>
       </c>
@@ -3417,63 +3391,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>64</v>
       </c>
@@ -3482,63 +3456,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B71" s="5"/>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B73" s="5"/>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B74" s="5"/>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="5"/>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B76" s="5"/>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B77" s="5"/>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>64</v>
       </c>
@@ -3549,7 +3523,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="B67 B78 B12 B23 B34 B45 B56">
+  <conditionalFormatting sqref="B12 B23 B34 B45 B56 B67 B78">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>10</formula>
     </cfRule>
@@ -3574,30 +3548,30 @@
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" style="9" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="9"/>
+    <col min="19" max="16384" width="11.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>66</v>
       </c>
@@ -3619,7 +3593,7 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
     </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3638,7 +3612,7 @@
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
     </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3657,7 +3631,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
@@ -3697,7 +3671,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -3762,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>2</v>
       </c>
@@ -3827,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>3</v>
       </c>
@@ -3892,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>4</v>
       </c>
@@ -3957,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>5</v>
       </c>
@@ -4022,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>6</v>
       </c>
@@ -4087,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -4152,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
         <v>85</v>
       </c>
@@ -4197,10 +4171,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R13" s="9"/>
     </row>
-    <row r="18" spans="3:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C18" s="26"/>
     </row>
   </sheetData>
@@ -4233,6 +4207,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
@@ -4242,15 +4225,6 @@
     <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4508,6 +4482,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EACDE16C-130D-4E5E-84A8-656A0A274BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2C8B3FA-527F-4218-A6C9-399161443A91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4515,14 +4497,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
     <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
     <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EACDE16C-130D-4E5E-84A8-656A0A274BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
